--- a/Resource/FCA Comparison.xlsx
+++ b/Resource/FCA Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Connected Stocks\Connected-Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RA_Aghajanzadeh\Dropbox\Connected Stocks\Connected-Stocks\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FBC62C-F9D3-4322-AC33-4D865835BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555244D9-CE74-46F9-95CF-C12D203D5912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{219ECEC4-BE42-4FA9-BA87-1CDC2DAE881A}"/>
+    <workbookView xWindow="-24120" yWindow="1020" windowWidth="24240" windowHeight="13140" xr2:uid="{219ECEC4-BE42-4FA9-BA87-1CDC2DAE881A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="36">
   <si>
     <t>SQRT</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>(20,30),(20,30)</t>
+  </si>
+  <si>
+    <t>FCAP</t>
+  </si>
+  <si>
+    <t>MFCAP</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>firm x</t>
+  </si>
+  <si>
+    <t>firm y</t>
   </si>
 </sst>
 </file>
@@ -400,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,6 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7178,41 +7199,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8A97A9-D6D0-4E76-ADED-A97BB2576E98}">
   <dimension ref="A9:AM182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="1"/>
+    <col min="40" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
@@ -7235,8 +7256,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="38" t="s">
+    <row r="10" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7354,8 +7375,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="39"/>
+    <row r="11" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="41"/>
       <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
@@ -7483,8 +7504,8 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="12" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C12" s="38" t="s">
+    <row r="12" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C12" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -7614,8 +7635,8 @@
         <v>2.6845637583892619</v>
       </c>
     </row>
-    <row r="13" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="39"/>
+    <row r="13" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="41"/>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
@@ -7743,7 +7764,7 @@
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="14" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
         <v>0</v>
       </c>
@@ -7821,7 +7842,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="15" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D15" s="16" t="s">
         <v>1</v>
       </c>
@@ -7899,7 +7920,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="16" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="18" t="s">
         <v>11</v>
       </c>
@@ -7977,7 +7998,7 @@
         <v>3.6697247706422016</v>
       </c>
     </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
@@ -8097,7 +8118,7 @@
         <v>3.8461538461538458</v>
       </c>
     </row>
-    <row r="18" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:39" x14ac:dyDescent="0.25">
       <c r="AG18" s="28">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8126,7 +8147,7 @@
         <v>3.9603960396039604</v>
       </c>
     </row>
-    <row r="19" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
@@ -8307,7 +8328,7 @@
         <v>3.9603960396039604</v>
       </c>
     </row>
-    <row r="21" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="10" t="s">
         <v>3</v>
@@ -8436,7 +8457,7 @@
         <v>3.8461538461538458</v>
       </c>
     </row>
-    <row r="22" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -8567,7 +8588,7 @@
         <v>3.6697247706422016</v>
       </c>
     </row>
-    <row r="23" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="D23" s="10" t="s">
         <v>5</v>
@@ -8696,7 +8717,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="24" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
@@ -8827,7 +8848,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="10" t="s">
         <v>7</v>
@@ -8956,7 +8977,7 @@
         <v>2.9411764705882351</v>
       </c>
     </row>
-    <row r="26" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
         <v>0</v>
       </c>
@@ -9034,7 +9055,7 @@
         <v>2.6845637583892619</v>
       </c>
     </row>
-    <row r="27" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D27" s="16" t="s">
         <v>1</v>
       </c>
@@ -9112,7 +9133,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="28" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="18" t="s">
         <v>11</v>
       </c>
@@ -9163,7 +9184,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="29" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:39" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
@@ -9214,8 +9235,8 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="30" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -9248,7 +9269,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10" t="s">
         <v>3</v>
       </c>
@@ -9278,7 +9299,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D33" s="9" t="s">
         <v>4</v>
       </c>
@@ -9308,7 +9329,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="10" t="s">
         <v>5</v>
       </c>
@@ -9338,7 +9359,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>0</v>
       </c>
@@ -9354,7 +9375,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D36" s="16" t="s">
         <v>1</v>
       </c>
@@ -9370,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="18" t="s">
         <v>11</v>
       </c>
@@ -9386,7 +9407,7 @@
         <v>1.4705882352941175</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D38" s="27" t="s">
         <v>18</v>
       </c>
@@ -9402,9 +9423,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D41" s="38" t="s">
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D41" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -9421,7 +9442,7 @@
         <f>(F41*$B$45)^2</f>
         <v>10000</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="I41" s="40" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -9509,8 +9530,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="39"/>
+    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="41"/>
       <c r="E42" s="10" t="s">
         <v>3</v>
       </c>
@@ -9525,7 +9546,7 @@
         <f>(F42*$B$46)^2</f>
         <v>2500</v>
       </c>
-      <c r="I42" s="39"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="10" t="s">
         <v>3</v>
       </c>
@@ -9611,8 +9632,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D43" s="38" t="s">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D43" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -9629,7 +9650,7 @@
         <f>(F43*$B$45)^2</f>
         <v>10000</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="40" t="s">
         <v>9</v>
       </c>
       <c r="J43" s="9" t="s">
@@ -9717,8 +9738,8 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="39"/>
+    <row r="44" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="41"/>
       <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
@@ -9733,7 +9754,7 @@
         <f>(F44*$B$46)^2</f>
         <v>2500</v>
       </c>
-      <c r="I44" s="39"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="10" t="s">
         <v>5</v>
       </c>
@@ -9819,7 +9840,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -9892,7 +9913,7 @@
       <c r="AF45" s="29"/>
       <c r="AG45" s="29"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -9965,7 +9986,7 @@
       <c r="AF46" s="29"/>
       <c r="AG46" s="29"/>
     </row>
-    <row r="47" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="29"/>
       <c r="E47" s="18" t="s">
         <v>11</v>
@@ -10032,7 +10053,7 @@
       <c r="AF47" s="29"/>
       <c r="AG47" s="29"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D48" s="29"/>
       <c r="E48" s="29" t="s">
         <v>18</v>
@@ -10099,25 +10120,25 @@
       <c r="AF48" s="29"/>
       <c r="AG48" s="29"/>
     </row>
-    <row r="52" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G52" s="37" t="s">
+    <row r="52" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36" t="s">
+      <c r="H52" s="39"/>
+      <c r="I52" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36" t="s">
+      <c r="J52" s="38"/>
+      <c r="K52" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="37" t="s">
+      <c r="L52" s="38"/>
+      <c r="M52" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="37"/>
-    </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="39"/>
+    </row>
+    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="str">
         <f>E45</f>
         <v>SQRT</v>
@@ -10151,7 +10172,7 @@
         <v>SUM</v>
       </c>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G54" s="6">
         <f>S45</f>
         <v>0.79999999999999993</v>
@@ -10185,7 +10206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F55" s="30">
         <v>1</v>
       </c>
@@ -10215,7 +10236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F56" s="30">
         <v>2</v>
       </c>
@@ -10244,7 +10265,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F57" s="30">
         <v>3</v>
       </c>
@@ -10273,7 +10294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F58" s="30">
         <v>4</v>
       </c>
@@ -10302,7 +10323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F59" s="30">
         <v>5</v>
       </c>
@@ -10331,7 +10352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F60" s="30">
         <v>6</v>
       </c>
@@ -10360,7 +10381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F61" s="30">
         <v>7</v>
       </c>
@@ -10389,7 +10410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F62" s="30">
         <v>8</v>
       </c>
@@ -10418,7 +10439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="6:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="F63" s="30">
         <v>9</v>
       </c>
@@ -10447,7 +10468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F64" s="30">
         <v>10</v>
       </c>
@@ -10476,7 +10497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F65" s="30">
         <v>11</v>
       </c>
@@ -10505,7 +10526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F66" s="30">
         <v>12</v>
       </c>
@@ -10534,7 +10555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -10544,11 +10565,11 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-    </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E69" s="9" t="s">
         <v>2</v>
       </c>
@@ -10592,7 +10613,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="70" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="10" t="s">
         <v>3</v>
       </c>
@@ -10636,7 +10657,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E71" s="9" t="s">
         <v>4</v>
       </c>
@@ -10680,7 +10701,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="72" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="10" t="s">
         <v>5</v>
       </c>
@@ -10724,7 +10745,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E73" s="14" t="s">
         <v>0</v>
       </c>
@@ -10753,7 +10774,7 @@
       <c r="O73" s="30"/>
       <c r="P73" s="30"/>
     </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E74" s="16" t="s">
         <v>1</v>
       </c>
@@ -10782,7 +10803,7 @@
       <c r="O74" s="30"/>
       <c r="P74" s="30"/>
     </row>
-    <row r="75" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="18" t="s">
         <v>11</v>
       </c>
@@ -10811,7 +10832,7 @@
       <c r="O75" s="30"/>
       <c r="P75" s="30"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E76" s="30" t="s">
         <v>18</v>
       </c>
@@ -10840,21 +10861,21 @@
       <c r="O76" s="30"/>
       <c r="P76" s="30"/>
     </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E80" s="36" t="s">
+    <row r="80" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E80" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36" t="s">
+      <c r="F80" s="38"/>
+      <c r="G80" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36" t="s">
+      <c r="H80" s="38"/>
+      <c r="I80" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="36"/>
-    </row>
-    <row r="81" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="J80" s="38"/>
+    </row>
+    <row r="81" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E81" s="30" t="str">
         <f>E73</f>
         <v>SQRT</v>
@@ -10882,7 +10903,7 @@
       <c r="AB81" s="28"/>
       <c r="AF81" s="1"/>
     </row>
-    <row r="82" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E82" s="6">
         <f>F73</f>
         <v>0.80000000000000016</v>
@@ -10910,7 +10931,7 @@
       <c r="AB82" s="28"/>
       <c r="AF82" s="1"/>
     </row>
-    <row r="83" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D83" s="1">
         <v>1</v>
       </c>
@@ -10934,7 +10955,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <v>2</v>
       </c>
@@ -10957,7 +10978,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="85" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D85" s="30">
         <v>3</v>
       </c>
@@ -10980,7 +11001,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="86" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D86" s="30">
         <v>4</v>
       </c>
@@ -11003,7 +11024,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="87" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D87" s="30">
         <v>5</v>
       </c>
@@ -11026,7 +11047,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="88" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D88" s="30">
         <v>6</v>
       </c>
@@ -11049,7 +11070,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="89" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D89" s="30">
         <v>7</v>
       </c>
@@ -11072,7 +11093,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="90" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D90" s="30">
         <v>8</v>
       </c>
@@ -11095,7 +11116,7 @@
         <v>0.42222222222222222</v>
       </c>
     </row>
-    <row r="91" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D91" s="30">
         <v>9</v>
       </c>
@@ -11118,7 +11139,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="92" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D92" s="30">
         <v>10</v>
       </c>
@@ -11141,7 +11162,7 @@
         <v>0.41818181818181821</v>
       </c>
     </row>
-    <row r="93" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D93" s="30">
         <v>11</v>
       </c>
@@ -11164,7 +11185,7 @@
         <v>0.41666666666666663</v>
       </c>
     </row>
-    <row r="94" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D94" s="30">
         <v>12</v>
       </c>
@@ -11187,7 +11208,7 @@
         <v>0.41538461538461541</v>
       </c>
     </row>
-    <row r="95" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D95" s="30">
         <v>13</v>
       </c>
@@ -11210,7 +11231,7 @@
         <v>0.41428571428571431</v>
       </c>
     </row>
-    <row r="96" spans="4:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D96" s="30">
         <v>14</v>
       </c>
@@ -11233,7 +11254,7 @@
         <v>0.41333333333333333</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97" s="30">
         <v>15</v>
       </c>
@@ -11256,7 +11277,7 @@
         <v>0.41249999999999998</v>
       </c>
     </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98" s="30">
         <v>16</v>
       </c>
@@ -11279,7 +11300,7 @@
         <v>0.41176470588235298</v>
       </c>
     </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D99" s="30">
         <v>17</v>
       </c>
@@ -11302,7 +11323,7 @@
         <v>0.41111111111111115</v>
       </c>
     </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D100" s="30">
         <v>18</v>
       </c>
@@ -11325,7 +11346,7 @@
         <v>0.41052631578947368</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D101" s="30">
         <v>19</v>
       </c>
@@ -11348,7 +11369,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D102" s="30">
         <v>20</v>
       </c>
@@ -11371,7 +11392,7 @@
         <v>0.40952380952380951</v>
       </c>
     </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D103" s="30">
         <v>21</v>
       </c>
@@ -11394,7 +11415,7 @@
         <v>0.40909090909090906</v>
       </c>
     </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D104" s="30">
         <v>22</v>
       </c>
@@ -11417,7 +11438,7 @@
         <v>0.40869565217391307</v>
       </c>
     </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D105" s="30">
         <v>23</v>
       </c>
@@ -11440,7 +11461,7 @@
         <v>0.40833333333333338</v>
       </c>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D106" s="30">
         <v>24</v>
       </c>
@@ -11463,7 +11484,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D107" s="30">
         <v>25</v>
       </c>
@@ -11486,7 +11507,7 @@
         <v>0.40769230769230769</v>
       </c>
     </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D108" s="30">
         <v>26</v>
       </c>
@@ -11509,7 +11530,7 @@
         <v>0.40740740740740738</v>
       </c>
     </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D109" s="30">
         <v>27</v>
       </c>
@@ -11532,7 +11553,7 @@
         <v>0.40714285714285714</v>
       </c>
     </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D110" s="30">
         <v>28</v>
       </c>
@@ -11555,7 +11576,7 @@
         <v>0.40689655172413791</v>
       </c>
     </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D111" s="30">
         <v>29</v>
       </c>
@@ -11578,7 +11599,7 @@
         <v>0.40666666666666662</v>
       </c>
     </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D112" s="30">
         <v>30</v>
       </c>
@@ -11601,356 +11622,398 @@
         <v>0.40645161290322585</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="34"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="34"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="34"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="34">
         <f>D83</f>
         <v>1</v>
       </c>
-      <c r="E116" s="40">
+      <c r="E116" s="37">
         <f>(G83-E83)/E83</f>
         <v>6.4730632772871277E-2</v>
       </c>
-      <c r="F116" s="40">
+      <c r="F116" s="37">
         <f>(H83-F83)/F83</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="35">
         <f t="shared" ref="D117:D127" si="21">D84</f>
         <v>2</v>
       </c>
-      <c r="E117" s="40">
+      <c r="E117" s="37">
         <f t="shared" ref="E117:F117" si="22">(G84-E84)/E84</f>
         <v>0.11357150227499221</v>
       </c>
-      <c r="F117" s="40">
+      <c r="F117" s="37">
         <f t="shared" si="22"/>
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="35">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="E118" s="40">
+      <c r="E118" s="37">
         <f t="shared" ref="E118:F118" si="23">(G85-E85)/E85</f>
         <v>0.14424335068224864</v>
       </c>
-      <c r="F118" s="40">
+      <c r="F118" s="37">
         <f t="shared" si="23"/>
         <v>0.14285714285714299</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="35">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="E119" s="40">
+      <c r="E119" s="37">
         <f t="shared" ref="E119:F119" si="24">(G86-E86)/E86</f>
         <v>0.16657196186947965</v>
       </c>
-      <c r="F119" s="40">
+      <c r="F119" s="37">
         <f t="shared" si="24"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="35">
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="E120" s="40">
+      <c r="E120" s="37">
         <f t="shared" ref="E120:F120" si="25">(G87-E87)/E87</f>
         <v>0.18405198452883817</v>
       </c>
-      <c r="F120" s="40">
+      <c r="F120" s="37">
         <f t="shared" si="25"/>
         <v>0.22222222222222218</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="35">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="E121" s="40">
+      <c r="E121" s="37">
         <f t="shared" ref="E121:F121" si="26">(G88-E88)/E88</f>
         <v>0.19835444627979368</v>
       </c>
-      <c r="F121" s="40">
+      <c r="F121" s="37">
         <f t="shared" si="26"/>
         <v>0.24999999999999986</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="35">
         <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="E122" s="40">
+      <c r="E122" s="37">
         <f t="shared" ref="E122:F122" si="27">(G89-E89)/E89</f>
         <v>0.2104132560469951</v>
       </c>
-      <c r="F122" s="40">
+      <c r="F122" s="37">
         <f t="shared" si="27"/>
         <v>0.27272727272727254</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="35">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="E123" s="40">
+      <c r="E123" s="37">
         <f t="shared" ref="E123:F123" si="28">(G90-E90)/E90</f>
         <v>0.22080454930862367</v>
       </c>
-      <c r="F123" s="40">
+      <c r="F123" s="37">
         <f t="shared" si="28"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="35">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="E124" s="40">
+      <c r="E124" s="37">
         <f t="shared" ref="E124:F124" si="29">(G91-E91)/E91</f>
         <v>0.22990908339470084</v>
       </c>
-      <c r="F124" s="40">
+      <c r="F124" s="37">
         <f t="shared" si="29"/>
         <v>0.30769230769230776</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="35">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="E125" s="40">
+      <c r="E125" s="37">
         <f t="shared" ref="E125:F125" si="30">(G92-E92)/E92</f>
         <v>0.23799166099884589</v>
       </c>
-      <c r="F125" s="40">
+      <c r="F125" s="37">
         <f t="shared" si="30"/>
         <v>0.32142857142857134</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="35">
         <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="E126" s="40">
+      <c r="E126" s="37">
         <f t="shared" ref="E126:F126" si="31">(G93-E93)/E93</f>
         <v>0.24524384687900036</v>
       </c>
-      <c r="F126" s="40">
+      <c r="F126" s="37">
         <f t="shared" si="31"/>
         <v>0.33333333333333348</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="35">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="E127" s="40">
+      <c r="E127" s="37">
         <f t="shared" ref="E127:F127" si="32">(G94-E94)/E94</f>
         <v>0.25180865003864894</v>
       </c>
-      <c r="F127" s="40">
+      <c r="F127" s="37">
         <f t="shared" si="32"/>
         <v>0.34375000000000011</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="34"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D129" s="34"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D130" s="34"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D131" s="34"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D132" s="34"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D133" s="34"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D134" s="34"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D135" s="34"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D136" s="34"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D137" s="34"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D138" s="34"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D139" s="34"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="E137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F138" s="42">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F139" s="42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D140" s="34"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D141" s="34"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D142" s="34"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="1">
+        <f>(E138*$C$138+E139*$C$139)/($C$138+$C$139)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F141" s="36">
+        <f>(F138*$C$138+F139*$C$139)/($C$138+$C$139)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="6">
+        <f>(SQRT(E138*$C$138)+SQRT(E139*$C$139))/(SQRT($C$138)+SQRT($C$139))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F142" s="6">
+        <f>(SQRT(F138*$C$138)+SQRT(F139*$C$139))/(SQRT($C$138)+SQRT($C$139))</f>
+        <v>0.63245553203367588</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D143" s="34"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D144" s="34"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="34"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="34"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="34"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="34"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="34"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="34"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="34"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="34"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="34"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="34"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="34"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="34"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="34"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="34"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="34"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="34"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="34"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="34"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="34"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="34"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="34"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="34"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="34"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="34"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="34"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="34"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="34"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="34"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="34"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="34"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="34"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="34"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="34"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="34"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="34"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="34"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="34"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="C10:C11"/>
@@ -11959,6 +12022,12 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11977,18 +12046,18 @@
       <selection activeCell="G33" sqref="B33:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
     <col min="4" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="str">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="str">
         <f>Sheet1!C10</f>
         <v>Holder_1</v>
       </c>
@@ -12025,8 +12094,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="1" t="str">
         <f>Sheet1!D11</f>
         <v>y1</v>
@@ -12060,8 +12129,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="str">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="str">
         <f>Sheet1!C12</f>
         <v>Holder_2</v>
       </c>
@@ -12098,8 +12167,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="1" t="str">
         <f>Sheet1!D13</f>
         <v>y2</v>
@@ -12133,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="str">
         <f>Sheet1!D14</f>
         <v>SQRT</v>
@@ -12167,7 +12236,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
         <f>Sheet1!D15</f>
         <v>SUM</v>
@@ -12201,7 +12270,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="str">
         <f>Sheet1!D16</f>
         <v>Quadratic</v>
@@ -12235,8 +12304,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="str">
         <f>Sheet1!E19</f>
         <v>Percent</v>
@@ -12266,8 +12335,8 @@
         <v>Percent</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="str">
         <f>Sheet1!C20</f>
         <v>Holder_1</v>
       </c>
@@ -12304,8 +12373,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="1" t="str">
         <f>Sheet1!D21</f>
         <v>y1</v>
@@ -12339,8 +12408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="str">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="str">
         <f>Sheet1!C22</f>
         <v>Holder_2</v>
       </c>
@@ -12377,8 +12446,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="1" t="str">
         <f>Sheet1!D23</f>
         <v>y2</v>
@@ -12412,8 +12481,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="str">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="str">
         <f>Sheet1!C24</f>
         <v>Holder_3</v>
       </c>
@@ -12450,8 +12519,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="1" t="str">
         <f>Sheet1!D25</f>
         <v>y3</v>
@@ -12485,7 +12554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
         <f>Sheet1!D26</f>
         <v>SQRT</v>
@@ -12519,7 +12588,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
         <f>Sheet1!D27</f>
         <v>SUM</v>
@@ -12553,7 +12622,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
         <f>Sheet1!D28</f>
         <v>Quadratic</v>
@@ -12587,7 +12656,7 @@
         <v>3333.3333333333335</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -12598,7 +12667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -12609,7 +12678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
@@ -12620,7 +12689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -12631,7 +12700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -12642,7 +12711,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -12653,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
@@ -12664,22 +12733,22 @@
         <v>1.4705882352941175</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="32">
         <v>1</v>
       </c>
@@ -12702,7 +12771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="32">
         <v>2</v>
       </c>
@@ -12725,7 +12794,7 @@
         <v>0.46666666666666662</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="32">
         <v>3</v>
       </c>
@@ -12754,7 +12823,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="32">
         <v>4</v>
       </c>
@@ -12783,7 +12852,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="32">
         <v>5</v>
       </c>
@@ -12812,7 +12881,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="32">
         <v>6</v>
       </c>
@@ -12841,7 +12910,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="32">
         <v>7</v>
       </c>
@@ -12870,7 +12939,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="32">
         <v>8</v>
       </c>
@@ -12899,7 +12968,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="32">
         <v>9</v>
       </c>
@@ -12928,7 +12997,7 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="32">
         <v>10</v>
       </c>
@@ -12957,7 +13026,7 @@
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -12969,7 +13038,7 @@
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -12981,7 +13050,7 @@
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
